--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
@@ -349,12 +349,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -362,14 +362,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -377,7 +377,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -515,10 +515,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -528,8 +533,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -544,8 +549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="819150"/>
-          <a:ext cx="1857375" cy="762000"/>
+          <a:off x="6943725" y="685800"/>
+          <a:ext cx="1857375" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -924,7 +929,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,6 +1003,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1032,6 +1038,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1207,14 +1214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -1224,7 +1231,7 @@
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1234,7 +1241,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
         <v>56</v>
@@ -1245,7 +1252,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1266,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1273,7 +1280,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1287,7 +1294,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1301,7 +1308,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1315,7 +1322,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -1325,7 +1332,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>62</v>
@@ -1338,7 +1345,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1356,7 +1363,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1374,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>31</v>
@@ -1392,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>32</v>
@@ -1410,7 +1417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>53</v>
@@ -1428,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1436,7 +1443,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>20</v>
@@ -1446,7 +1453,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1477,7 +1484,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>100</v>
@@ -1493,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>500</v>
@@ -1509,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1000</v>
@@ -1525,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1500</v>
@@ -1537,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>2000</v>
@@ -1549,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>2500</v>
@@ -1561,10 +1568,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
         <v>68</v>
       </c>
@@ -1573,7 +1580,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -1588,7 +1595,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
@@ -1659,7 +1666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>77</v>
@@ -1686,7 +1693,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
         <v>69</v>
@@ -1702,7 +1709,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>25</v>
@@ -1732,7 +1739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
         <v>28</v>
@@ -1746,7 +1753,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
         <v>29</v>
@@ -1760,7 +1767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1768,7 +1775,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1795,7 +1802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="1" customFormat="1">
+    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
@@ -1830,12 +1837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,12 +1850,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="#Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="#Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="#Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -91,9 +91,6 @@
     <t>height</t>
   </si>
   <si>
-    <t>blue</t>
-  </si>
-  <si>
     <t>Barrack for battle</t>
   </si>
   <si>
@@ -178,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#shop[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#inventory[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -343,6 +336,14 @@
   </si>
   <si>
     <t>Initial Inventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl"ue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shop{{}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,28 +864,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvPr id="2" name="직사각형 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6677025" y="9210674"/>
-          <a:ext cx="1857375" cy="904875"/>
+          <a:off x="8896350" y="7543799"/>
+          <a:ext cx="1857375" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,17 +1221,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
@@ -1244,17 +1250,17 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1275,7 +1281,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1303,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1317,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1335,19 +1341,19 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -1366,10 +1372,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1378,16 +1384,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
@@ -1396,16 +1402,16 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>100</v>
@@ -1414,16 +1420,16 @@
         <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
         <v>200</v>
@@ -1432,7 +1438,7 @@
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1446,7 +1452,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -1455,31 +1461,31 @@
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1573,7 +1579,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1582,42 +1588,42 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F31" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -1626,15 +1632,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>200</v>
@@ -1643,15 +1649,15 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>300</v>
@@ -1660,15 +1666,15 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -1677,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1696,42 +1702,42 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -1742,10 +1748,10 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1756,10 +1762,10 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -1774,47 +1780,6 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1838,14 +1803,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#inventory[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t>#shop{{}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,10 +1250,10 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1281,7 +1281,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1341,13 +1341,13 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1375,7 +1375,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1426,7 +1426,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1464,14 +1464,14 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -1618,7 +1618,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1635,7 +1635,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1652,7 +1652,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1669,7 +1669,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1683,16 +1683,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1702,33 +1702,33 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C39" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1737,7 +1737,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -1751,7 +1751,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1765,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -1818,42 +1818,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>Initial Data</t>
   </si>
@@ -239,111 +239,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial coins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial exp.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial character</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dagger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thorn dagger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Inventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bl"ue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shop{{}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#_[{}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>attrib[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial coins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial exp.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial character</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Width</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas mine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Required Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dagger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thorn dagger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Inventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bl"ue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#shop{{}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#_[{}]</t>
+    <t>旬是什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s dsfjs 是要</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1223,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,10 +1258,10 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1281,7 +1289,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1295,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1309,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1323,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1341,13 +1349,13 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1375,7 +1383,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1464,14 +1472,14 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1579,7 +1587,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1588,22 +1596,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -1618,7 +1626,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1635,7 +1643,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1652,7 +1660,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1669,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1686,13 +1694,13 @@
         <v>49</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1702,28 +1710,28 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -1775,14 +1783,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="C43:E43"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="C42:E42"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#_[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attrib[]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,6 +348,10 @@
   </si>
   <si>
     <t>s dsfjs 是要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#inventory[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,13 +1725,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -1784,10 +1784,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -331,10 +331,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bl"ue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#shop{{}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,6 +348,10 @@
   </si>
   <si>
     <t>#inventory[{}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b"l"ue"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +520,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,8 +1385,8 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
+      <c r="C14" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -1725,13 +1728,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -1784,10 +1787,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -191,10 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dur</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#friends{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,6 +348,10 @@
   </si>
   <si>
     <t>b"l"ue"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dur#jc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,10 +1261,10 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1292,7 +1292,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1352,13 +1352,13 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1386,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1437,7 +1437,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1475,14 +1475,14 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1590,7 +1590,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1599,22 +1599,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -1629,7 +1629,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1646,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1663,7 +1663,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1680,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1694,16 +1694,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1713,33 +1713,33 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="4" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1787,10 +1787,10 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1834,42 +1834,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -351,7 +351,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dur#jc</t>
+    <t>dur#s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Initial Data</t>
   </si>
@@ -179,18 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>oil,diamond</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>saphire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diamond,saphire,rune</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#friends{}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,18 +319,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attrib[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>旬是什么</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>s dsfjs 是要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>#inventory[{}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -352,6 +332,18 @@
   </si>
   <si>
     <t>dur#s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"a":1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrib#j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a，b,c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1235,7 +1227,7 @@
   <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="C40" sqref="C40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,10 +1253,10 @@
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1292,7 +1284,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1306,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1320,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1334,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1352,13 +1344,13 @@
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1386,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3">
         <v>200</v>
@@ -1437,7 +1429,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -1475,14 +1467,14 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1590,7 +1582,7 @@
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1599,22 +1591,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
@@ -1629,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1646,7 +1638,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1663,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1680,7 +1672,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1694,16 +1686,16 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1713,33 +1705,33 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1748,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -1762,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1775,9 +1767,7 @@
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="3">
@@ -1787,11 +1777,9 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>76</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="1"/>
@@ -1834,42 +1822,42 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="7"/>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -335,15 +335,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>attrib#j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{"a":1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attrib#j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a，b,c</t>
+    <t>def</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C40" sqref="C40:E40"/>
     </sheetView>
   </sheetViews>
@@ -1726,7 +1726,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -1739,9 +1739,7 @@
       <c r="B40" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="3">
@@ -1754,7 +1752,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1767,7 +1765,9 @@
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="3">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Initial Data</t>
   </si>
@@ -331,19 +331,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dur#s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attrib#j</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"a":1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
+    <t>{"a":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dru</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1227,7 +1223,7 @@
   <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:E40"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1726,12 +1722,12 @@
         <v>35</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1742,8 +1738,8 @@
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="3">
-        <v>100</v>
+      <c r="F40" s="17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1752,7 +1748,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1765,9 +1761,7 @@
       <c r="B42" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="3">
